--- a/medicine/Enfance/Joël_Sadeler/Joël_Sadeler.xlsx
+++ b/medicine/Enfance/Joël_Sadeler/Joël_Sadeler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Sadeler</t>
+          <t>Joël_Sadeler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Joël Sadeler, né le 12 septembre 1938 au Mans et mort le 13 septembre 2000 à Ballon, est un poète français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Sadeler</t>
+          <t>Joël_Sadeler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né de parents enseignants, Joël Sadeler sera lui-même professeur dans un collège sarthois. Animateur en poésie, il publie de nombreux recueils à partir de 1967, dont quelques-uns destinés à un jeune public.
 Certains de ses textes ont été mis en musique par Edgar Cosma, Luce Dauthier, Serge Kerval, Marc Pinget ou encore Max Rongier, et ses poèmes ont été publiés dans de nombreuses revues et anthologies.
@@ -519,7 +533,7 @@
 Il a obtenu en 1997 le Prix de Poésie Jeunesse du Ministère de la Jeunesse et des Sports pour son recueil L'Enfant partagé.
 Il a été membre du conseil municipal de Ballon de 1965 à 1971 puis de 1977 à 2000 et adjoint au maire de 1977 à 1995. 
 Il meurt en septembre 2000. 
-Le Prix Joël Sadeler est créé en son hommage en 2001[1], qui récompense chaque année un recueil de poésie destiné à la jeunesse.
+Le Prix Joël Sadeler est créé en son hommage en 2001, qui récompense chaque année un recueil de poésie destiné à la jeunesse.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Sadeler</t>
+          <t>Joël_Sadeler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
-Graffiti, 1967.
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Graffiti, 1967.
 Pièces détachées, 1974.
 L'humour-gaz, 1976.
 Sautes d'humour Sautes d'humeur Sautes d'amour, 1980.
@@ -578,15 +597,7 @@
 Le cancre du cancer, 2000.
 Les animaux font leur cirque, 2000.
 Trente-six chants d'arbres, 2000.
-Dis, c'est grand comment la vie ?, 2011.
-Albums et contes
-Au bout du conte, 2 volumes, 1992.
-Le voyage du chariot à mots, 1995.
-Alphabêti Alphabêta, 2001.
-Anthologies
-À travers Prévert, collection Textes pour aujourd'hui, Larousse, 1976.
-L'humour en branches, collection Textes pour aujourd'hui, Larousse, 1979.
-L'école des poètes, collection Fleurs d'encre, Hachette, Livres de poche jeunesse, 1990.</t>
+Dis, c'est grand comment la vie ?, 2011.</t>
         </is>
       </c>
     </row>
@@ -596,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Sadeler</t>
+          <t>Joël_Sadeler</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,12 +622,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Album - CD</t>
+          <t>Œuvres</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ménagerimes : de A comme araignée à Z comme zébu..., 26 poèmes de Joël Sadeler ; chantés par Jacques Haurogné ; mis en musique par Thibault Maillé ; piano Ezequiel Spucches ; illustrations de Martin Jarrie, Didier Jeunesse, 2009 — album accompagné d'un CD</t>
+          <t>Albums et contes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Au bout du conte, 2 volumes, 1992.
+Le voyage du chariot à mots, 1995.
+Alphabêti Alphabêta, 2001.</t>
         </is>
       </c>
     </row>
@@ -626,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Sadeler</t>
+          <t>Joël_Sadeler</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,13 +660,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anthologies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>À travers Prévert, collection Textes pour aujourd'hui, Larousse, 1976.
+L'humour en branches, collection Textes pour aujourd'hui, Larousse, 1979.
+L'école des poètes, collection Fleurs d'encre, Hachette, Livres de poche jeunesse, 1990.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joël_Sadeler</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo%C3%ABl_Sadeler</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Album - CD</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ménagerimes : de A comme araignée à Z comme zébu..., 26 poèmes de Joël Sadeler ; chantés par Jacques Haurogné ; mis en musique par Thibault Maillé ; piano Ezequiel Spucches ; illustrations de Martin Jarrie, Didier Jeunesse, 2009 — album accompagné d'un CD</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joël_Sadeler</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo%C3%ABl_Sadeler</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix Joël Sadeler</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un an après son décès, en 2001[1], est créé le Prix Joël Sadeler, en son hommage. Le prix récompense un recueil de poésie jeunesse.
-Parmi ses lauréats[1], figurent François David (2003 et 2013), David Dumortier (2007), Thierry Cazals (2012), Thomas Vinau (2016), Alain Boudet (2019) et Carl Norac (2020).
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un an après son décès, en 2001, est créé le Prix Joël Sadeler, en son hommage. Le prix récompense un recueil de poésie jeunesse.
+Parmi ses lauréats, figurent François David (2003 et 2013), David Dumortier (2007), Thierry Cazals (2012), Thomas Vinau (2016), Alain Boudet (2019) et Carl Norac (2020).
 </t>
         </is>
       </c>
